--- a/Python/Mehrotra_prova.xlsx
+++ b/Python/Mehrotra_prova.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>it</t>
   </si>
@@ -28,34 +28,28 @@
     <t>Current s</t>
   </si>
   <si>
-    <t>[7.5    0.     2.5    0.     0.     0.     0.0001]</t>
-  </si>
-  <si>
-    <t>[11.7521  2.6145  6.5422  1.0707  1.8944  2.7147  5.5616]</t>
-  </si>
-  <si>
-    <t>[8.8231 0.0261 1.882  0.188  0.2508 0.2401 1.2309]</t>
-  </si>
-  <si>
-    <t>[7.8636 0.0202 2.2074 0.0283 0.0027 0.0198 0.6492]</t>
-  </si>
-  <si>
-    <t>[7.5037 0.0003 2.4972 0.0003 0.     0.0003 0.0065]</t>
-  </si>
-  <si>
-    <t>[ 0. 20.  0.  8.  8.  8.  1.]</t>
-  </si>
-  <si>
-    <t>[ 0.8077  7.837   5.3498 11.7344  7.1923  4.9212  3.2711]</t>
-  </si>
-  <si>
-    <t>[ 0.0632 10.7105  3.7537 11.6273  7.9368  6.0915  2.8453]</t>
-  </si>
-  <si>
-    <t>[ 0.0121 19.9242  0.0375  8.0134  7.9879  7.9752  1.0127]</t>
-  </si>
-  <si>
-    <t>[ 0.0001 19.9982  0.0008  8.0006  7.9999  7.9995  1.0003]</t>
+    <t>[0.0449 0.     0.9986 0.     0.0304 0.0001 0.0014]</t>
+  </si>
+  <si>
+    <t>[0.2533 0.0247 0.5251 0.0026 0.2962 0.1753 0.5198]</t>
+  </si>
+  <si>
+    <t>[0.2142 0.0013 0.5239 0.0004 0.0423 0.0194 0.4761]</t>
+  </si>
+  <si>
+    <t>[0.0368 0.     0.9664 0.     0.0299 0.002  0.0336]</t>
+  </si>
+  <si>
+    <t>[ 0.0005 14.8813  0.0002 10.5196  0.0022  1.4998  0.0503]</t>
+  </si>
+  <si>
+    <t>[0.5617 6.7394 1.2004 8.2935 0.0526 2.3582 1.241 ]</t>
+  </si>
+  <si>
+    <t>[ 0.0615  5.973   0.012  10.9823  0.0373  1.5978  0.0647]</t>
+  </si>
+  <si>
+    <t>[ 0.0473  6.4283  0.0011 10.8126  0.0038  1.5927  0.0531]</t>
   </si>
 </sst>
 </file>
@@ -413,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,13 +432,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>275.1724137931036</v>
+        <v>39.80403590861816</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -452,13 +446,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>122.7226469119777</v>
+        <v>4.2792007850125</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -466,13 +460,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.04373194497468</v>
+        <v>0.07753907862294944</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -480,13 +474,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.643727157761631</v>
+        <v>0.008354892348157325</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -494,27 +488,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0198105091945564</v>
+        <v>0.00098646211209788</v>
       </c>
       <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.0001981099498493677</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
